--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0367DA-2286-47E5-9ED1-F4CCB45A27F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>theta c.</t>
+  </si>
+  <si>
+    <t>in rad</t>
+  </si>
+  <si>
+    <t>h in eV*s</t>
+  </si>
+  <si>
+    <t>h in j*s</t>
+  </si>
+  <si>
+    <t>std of theta</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>std lambda</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>std nu</t>
+  </si>
+  <si>
+    <t>V in joule</t>
+  </si>
+  <si>
+    <t>resulting std</t>
+  </si>
+  <si>
+    <t>kV</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +122,1133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>f vs V applied</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43584796737781012"/>
+          <c:y val="4.1666735285512048E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12645844269466316"/>
+                  <c:y val="4.15139253426655E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sayfa1!$G$58:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7374341262642785E+18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6291128073008527E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2615976976189819E+18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9340747926639012E+18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7642970943494175E+18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4023852667719332E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sayfa1!$G$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4032647499999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8839176999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.36457065E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8452235999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3258765499999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8065294999999997E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C76F-4C84-A045-E2B6E24EC828}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1290197375"/>
+        <c:axId val="1162522799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1290197375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (1/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1162522799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1162522799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy (eV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1290197375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0DEC99-79BD-4AF6-AD1D-15752147B1C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1513,1526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>8.5</v>
+      </c>
+      <c r="E3">
+        <v>8.6</v>
+      </c>
+      <c r="F3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H3">
+        <v>8.9</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>9.1</v>
+      </c>
+      <c r="K3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L3">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>SQRT(D4)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:L5" si="0">SQRT(E4)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7.1</v>
+      </c>
+      <c r="F9">
+        <v>7.2</v>
+      </c>
+      <c r="G9">
+        <v>7.3</v>
+      </c>
+      <c r="H9">
+        <v>7.4</v>
+      </c>
+      <c r="I9">
+        <v>7.5</v>
+      </c>
+      <c r="J9">
+        <v>7.6</v>
+      </c>
+      <c r="K9">
+        <v>7.7</v>
+      </c>
+      <c r="L9">
+        <v>7.8</v>
+      </c>
+      <c r="M9">
+        <v>7.9</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>8.1</v>
+      </c>
+      <c r="P9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R9">
+        <v>8.4</v>
+      </c>
+      <c r="S9">
+        <v>8.5</v>
+      </c>
+      <c r="T9">
+        <v>8.6</v>
+      </c>
+      <c r="U9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W9">
+        <v>8.9</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>9.1</v>
+      </c>
+      <c r="Z9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>31</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="R10">
+        <v>32</v>
+      </c>
+      <c r="S10">
+        <v>46</v>
+      </c>
+      <c r="T10">
+        <v>41</v>
+      </c>
+      <c r="U10">
+        <v>41</v>
+      </c>
+      <c r="V10">
+        <v>40</v>
+      </c>
+      <c r="W10">
+        <v>43</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>47</v>
+      </c>
+      <c r="Z10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>SQRT(D10)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:Z11" si="1">SQRT(E10)</f>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>4.7958315233127191</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>5.5677643628300215</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>5.5677643628300215</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>6.7823299831252681</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>6.5574385243020004</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>6.9282032302755088</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>6.1</v>
+      </c>
+      <c r="E15">
+        <v>6.2</v>
+      </c>
+      <c r="F15">
+        <v>6.3</v>
+      </c>
+      <c r="G15">
+        <v>6.4</v>
+      </c>
+      <c r="H15">
+        <v>6.5</v>
+      </c>
+      <c r="I15">
+        <v>6.6</v>
+      </c>
+      <c r="J15">
+        <v>6.7</v>
+      </c>
+      <c r="K15">
+        <v>6.8</v>
+      </c>
+      <c r="L15">
+        <v>6.9</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>7.1</v>
+      </c>
+      <c r="O15">
+        <v>7.2</v>
+      </c>
+      <c r="P15">
+        <v>7.3</v>
+      </c>
+      <c r="Q15">
+        <v>7.4</v>
+      </c>
+      <c r="R15">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>42</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SQRT(D16)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:R17" si="2">SQRT(E16)</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>6.7823299831252681</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>7.2111025509279782</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>5.4</v>
+      </c>
+      <c r="E21">
+        <v>5.5</v>
+      </c>
+      <c r="F21">
+        <v>5.6</v>
+      </c>
+      <c r="G21">
+        <v>5.7</v>
+      </c>
+      <c r="H21">
+        <v>5.8</v>
+      </c>
+      <c r="I21">
+        <v>5.9</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>6.1</v>
+      </c>
+      <c r="L21">
+        <v>6.2</v>
+      </c>
+      <c r="M21">
+        <v>6.3</v>
+      </c>
+      <c r="N21">
+        <v>6.4</v>
+      </c>
+      <c r="O21">
+        <v>6.5</v>
+      </c>
+      <c r="P21">
+        <v>6.6</v>
+      </c>
+      <c r="Q21">
+        <v>6.7</v>
+      </c>
+      <c r="R21">
+        <v>6.8</v>
+      </c>
+      <c r="S21">
+        <v>6.9</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>7.1</v>
+      </c>
+      <c r="V21">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="L22">
+        <v>39</v>
+      </c>
+      <c r="M22">
+        <v>47</v>
+      </c>
+      <c r="N22">
+        <v>59</v>
+      </c>
+      <c r="O22">
+        <v>55</v>
+      </c>
+      <c r="P22">
+        <v>64</v>
+      </c>
+      <c r="Q22">
+        <v>64</v>
+      </c>
+      <c r="R22">
+        <v>71</v>
+      </c>
+      <c r="S22">
+        <v>86</v>
+      </c>
+      <c r="T22">
+        <v>82</v>
+      </c>
+      <c r="U22">
+        <v>100</v>
+      </c>
+      <c r="V22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>SQRT(D22)</f>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:V23" si="3">SQRT(E22)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>4.6904157598234297</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>6.2449979983983983</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>7.6811457478686078</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>7.416198487095663</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>8.426149773176359</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>9.2736184954957039</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>10.198039027185569</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>5.2</v>
+      </c>
+      <c r="G27">
+        <v>5.3</v>
+      </c>
+      <c r="H27">
+        <v>5.4</v>
+      </c>
+      <c r="I27">
+        <v>5.5</v>
+      </c>
+      <c r="J27">
+        <v>5.6</v>
+      </c>
+      <c r="K27">
+        <v>5.7</v>
+      </c>
+      <c r="L27">
+        <v>5.8</v>
+      </c>
+      <c r="M27">
+        <v>5.9</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>6.1</v>
+      </c>
+      <c r="P27">
+        <v>6.2</v>
+      </c>
+      <c r="Q27">
+        <v>6.3</v>
+      </c>
+      <c r="R27">
+        <v>6.4</v>
+      </c>
+      <c r="S27">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>36</v>
+      </c>
+      <c r="H28">
+        <v>38</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>56</v>
+      </c>
+      <c r="K28">
+        <v>55</v>
+      </c>
+      <c r="L28">
+        <v>67</v>
+      </c>
+      <c r="M28">
+        <v>58</v>
+      </c>
+      <c r="N28">
+        <v>73</v>
+      </c>
+      <c r="O28">
+        <v>76</v>
+      </c>
+      <c r="P28">
+        <v>83</v>
+      </c>
+      <c r="Q28">
+        <v>101</v>
+      </c>
+      <c r="R28">
+        <v>107</v>
+      </c>
+      <c r="S28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>SQRT(D28)</f>
+        <v>4.8989794855663558</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:S29" si="4">SQRT(E28)</f>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>6.164414002968976</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>6.6332495807107996</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>7.416198487095663</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>8.1853527718724504</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>8.5440037453175304</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>8.717797887081348</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>9.1104335791442992</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>10.344080432788601</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>10.440306508910551</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>4.8</v>
+      </c>
+      <c r="E33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H33">
+        <v>5.2</v>
+      </c>
+      <c r="I33">
+        <v>5.3</v>
+      </c>
+      <c r="J33">
+        <v>5.4</v>
+      </c>
+      <c r="K33">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>58</v>
+      </c>
+      <c r="F34">
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+      <c r="H34">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <v>94</v>
+      </c>
+      <c r="J34">
+        <v>111</v>
+      </c>
+      <c r="K34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>SQRT(D34)</f>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:K35" si="5">SQRT(E34)</f>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>8.2462112512353212</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>8.6602540378443873</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>9.1651513899116797</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>9.6953597148326587</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>10.535653752852738</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>10.488088481701515</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>39.74</v>
+      </c>
+      <c r="H39">
+        <v>12.19</v>
+      </c>
+      <c r="I39">
+        <v>24.09</v>
+      </c>
+      <c r="J39">
+        <v>22.21</v>
+      </c>
+      <c r="K39">
+        <v>29.96</v>
+      </c>
+      <c r="L39">
+        <v>102</v>
+      </c>
+      <c r="O39">
+        <v>4.51</v>
+      </c>
+      <c r="P39">
+        <v>1.58</v>
+      </c>
+      <c r="Q39">
+        <v>3.63</v>
+      </c>
+      <c r="R39">
+        <v>3.63</v>
+      </c>
+      <c r="S39">
+        <v>5.61</v>
+      </c>
+      <c r="T39">
+        <v>19.940000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>4.51</v>
+      </c>
+      <c r="H40">
+        <v>1.58</v>
+      </c>
+      <c r="I40">
+        <v>3.63</v>
+      </c>
+      <c r="J40">
+        <v>3.63</v>
+      </c>
+      <c r="K40">
+        <v>5.61</v>
+      </c>
+      <c r="L40">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="O40">
+        <f>0.9777*O39-0.0623</f>
+        <v>4.3471270000000004</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40:T40" si="6">0.9777*P39-0.0623</f>
+        <v>1.4824660000000001</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>3.4867509999999999</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>3.4867509999999999</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>5.4225970000000006</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>19.433038</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>8.4263157890000002</v>
+      </c>
+      <c r="H41">
+        <v>6.8074612139999999</v>
+      </c>
+      <c r="I41">
+        <v>5.9938405899999996</v>
+      </c>
+      <c r="J41">
+        <v>5.3198870989999998</v>
+      </c>
+      <c r="K41">
+        <f>268.03/57.353</f>
+        <v>4.6733387965755924</v>
+      </c>
+      <c r="L41">
+        <f>396.48/92.738</f>
+        <v>4.2752701158101321</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f>SQRT(G39^2+(G40*G41)^2)</f>
+        <v>54.986103763065579</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:L42" si="7">SQRT(H39^2+(H40*H41)^2)</f>
+        <v>16.25678599689488</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>32.461100670711289</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>29.43138062948411</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>39.811496704143956</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>132.93371499686816</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>15000</v>
+      </c>
+      <c r="H44">
+        <v>18000</v>
+      </c>
+      <c r="I44">
+        <v>21000</v>
+      </c>
+      <c r="J44">
+        <v>24000</v>
+      </c>
+      <c r="K44">
+        <v>27000</v>
+      </c>
+      <c r="L44">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f>G44*(1.6021765*10^-19)</f>
+        <v>2.4032647499999999E-15</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:L45" si="8">H44*(1.6021765*10^-19)</f>
+        <v>2.8839176999999998E-15</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>3.36457065E-15</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>3.8452235999999999E-15</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>4.3258765499999998E-15</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>4.8065294999999997E-15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>SIN(H46)</f>
+        <v>0.50058629816856581</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>8.4263157890000002</v>
+      </c>
+      <c r="H46">
+        <v>6.8074612139999999</v>
+      </c>
+      <c r="I46">
+        <v>5.9938405899999996</v>
+      </c>
+      <c r="J46">
+        <v>5.3198870989999998</v>
+      </c>
+      <c r="K46">
+        <f>268.03/57.353</f>
+        <v>4.6733387965755924</v>
+      </c>
+      <c r="L46">
+        <f>396.48/92.738</f>
+        <v>4.2752701158101321</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f>0.9777*G46-0.0623</f>
+        <v>8.1761089469053001</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47" si="9">0.9777*H46-0.0623</f>
+        <v>6.5933548289278008</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47" si="10">0.9777*I46-0.0623</f>
+        <v>5.797877944843</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47" si="11">0.9777*J46-0.0623</f>
+        <v>5.1389536166923007</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47" si="12">0.9777*K46-0.0623</f>
+        <v>4.5068233414119572</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47" si="13">0.9777*L46-0.0623</f>
+        <v>4.1176315922275668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <f>(PI()*G47)/180</f>
+        <v>0.14270002112526373</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:L48" si="14">(PI()*H47)/180</f>
+        <v>0.11507575051705758</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>0.10119205976627253</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="14"/>
+        <v>8.9691660718551267E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="14"/>
+        <v>7.865890611337116E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="14"/>
+        <v>7.1866228668507587E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <f>(564.02*10^-12)*G44*((10^-8)/2.9979)*SIN(G48)</f>
+        <v>4.0134486637743437E-15</v>
+      </c>
+      <c r="H49">
+        <f>(564.02*10^-12)*H44*((10^-8)/2.9979)*SIN(H48)</f>
+        <v>3.888434079984207E-15</v>
+      </c>
+      <c r="I49">
+        <f>(564.02*10^-12)*I44*((10^-8)/2.9979)*SIN(I48)</f>
+        <v>3.991183136160919E-15</v>
+      </c>
+      <c r="J49">
+        <f>(564.02*10^-12)*J44*((10^-8)/2.9979)*SIN(J48)</f>
+        <v>4.0444384067538888E-15</v>
+      </c>
+      <c r="K49">
+        <f>(564.02*10^-12)*K44*((10^-8)/2.9979)*SIN(K48)</f>
+        <v>3.9915455550517666E-15</v>
+      </c>
+      <c r="L49">
+        <f>(564.02*10^-12)*L44*((10^-8)/2.9979)*SIN(L48)</f>
+        <v>4.0527477183151989E-15</v>
+      </c>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <f>(1.60217662*10^-19)*G49</f>
+        <v>6.4302536146694949E-34</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:L50" si="15">(1.60217662*10^-19)*H49</f>
+        <v>6.229958171361907E-34</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="15"/>
+        <v>6.3945803068953009E-34</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="15"/>
+        <v>6.4799046563311312E-34</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="15"/>
+        <v>6.3951609659688633E-34</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="15"/>
+        <v>6.4932176410429581E-34</v>
+      </c>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <f>SQRT((39.74/158.7)^2+(4.518/18.83)^2-((39.74*4.518)/(18.83*158.7)))</f>
+        <v>0.24534064214581452</v>
+      </c>
+      <c r="H52">
+        <f>SQRT((12.9/165.2)^2+(1.58/23.9)^2-((12.19*1.58)/(165.2*23.9)))</f>
+        <v>7.4765320724366688E-2</v>
+      </c>
+      <c r="I52">
+        <f>SQRT((24.09/214)^2+(3.633/35.66)^2-((24.09*3.633)/(214*35.66)))</f>
+        <v>0.10762348668858086</v>
+      </c>
+      <c r="J52">
+        <f>SQRT((22.21/260)^2+(3.632/49.17)^2-((22.21*3.632)/(260*49.17)))</f>
+        <v>8.0271029351682233E-2</v>
+      </c>
+      <c r="K52">
+        <f>SQRT((29.96/260.3)^2+(5.314/55.98)^2-((29.96*5.314)/(260.3*55.98)))</f>
+        <v>0.1064554095743102</v>
+      </c>
+      <c r="L52">
+        <f>SQRT((102.2/398.6)^2+(19.94/93.14)^2-((102.2*19.94)/(398.6*93.14)))</f>
+        <v>0.23807856029632454</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <f>((564.02)*10^-12)*SIN(G48)</f>
+        <v>8.0212784994194031E-11</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" ref="H54:L54" si="16">((564.02)*10^-12)*SIN(H48)</f>
+        <v>6.4761869602136967E-11</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="16"/>
+        <v>5.6976990113794378E-11</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="16"/>
+        <v>5.0520091248364512E-11</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="16"/>
+        <v>4.4319460812924788E-11</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="16"/>
+        <v>4.0499107949123789E-11</v>
+      </c>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <f>(564.02*10^-12)*G52*COS(G48)</f>
+        <v>1.3697051198959684E-10</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56:L56" si="17">(564.02*10^-12)*H52*COS(H48)</f>
+        <v>4.1890233295686388E-11</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="17"/>
+        <v>6.0391275932279496E-11</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="17"/>
+        <v>4.5092480675121299E-11</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="17"/>
+        <v>5.9857326192149411E-11</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="17"/>
+        <v>1.3393445439786056E-10</v>
+      </c>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <f>(2.9979*10^8)/G54</f>
+        <v>3.7374341262642785E+18</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58:L58" si="18">(2.9979*10^8)/H54</f>
+        <v>4.6291128073008527E+18</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="18"/>
+        <v>5.2615976976189819E+18</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="18"/>
+        <v>5.9340747926639012E+18</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="18"/>
+        <v>6.7642970943494175E+18</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="18"/>
+        <v>7.4023852667719332E+18</v>
+      </c>
+      <c r="P58">
+        <f>4*1.9</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <f>G58*(G56/G54)</f>
+        <v>6.3820033905924526E+18</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:L60" si="19">H58*(H56/H54)</f>
+        <v>2.9942714230023373E+18</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="19"/>
+        <v>5.5768933698837955E+18</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="19"/>
+        <v>5.2965492797201521E+18</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="19"/>
+        <v>9.1357776067303496E+18</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="19"/>
+        <v>2.4480401721275699E+19</v>
+      </c>
+    </row>
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <f>1.60217662*10^-19*G44</f>
+        <v>2.4032649300000002E-15</v>
+      </c>
+      <c r="H62">
+        <f>1.60217662*10^-19*H44</f>
+        <v>2.883917916E-15</v>
+      </c>
+      <c r="I62">
+        <f>1.60217662*10^-19*I44</f>
+        <v>3.3645709020000002E-15</v>
+      </c>
+      <c r="J62">
+        <f>1.60217662*10^-19*J44</f>
+        <v>3.845223888E-15</v>
+      </c>
+      <c r="K62">
+        <f>1.60217662*10^-19*K44</f>
+        <v>4.3258768740000002E-15</v>
+      </c>
+      <c r="L62">
+        <f>1.60217662*10^-19*L44</f>
+        <v>4.8065298600000004E-15</v>
+      </c>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f>(G60/G58)^2*(G62/G58)^2</f>
+        <v>1.2056553343721141E-66</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64:L64" si="20">(H60/H58)^2*(H62/H58)^2</f>
+        <v>1.6238917069543361E-67</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="20"/>
+        <v>4.5938149400368371E-67</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="20"/>
+        <v>3.345162616293009E-67</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="20"/>
+        <v>7.4601687299920535E-67</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="20"/>
+        <v>4.6111965136297352E-66</v>
+      </c>
+      <c r="M64">
+        <f>SUM(G64:L64)</f>
+        <v>7.519155647329473E-66</v>
+      </c>
+      <c r="N64">
+        <f>SQRT(M64)*0.2</f>
+        <v>5.484215767939651E-34</v>
+      </c>
+      <c r="P64" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>